--- a/src/data/sample_aps_multisheet.xlsx
+++ b/src/data/sample_aps_multisheet.xlsx
@@ -2234,7 +2234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,6 +2351,291 @@
         </is>
       </c>
       <c r="K2" t="inlineStr">
+        <is>
+          <t>/app/static/images/cisco-9130.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>cisco-catalyst-9166</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Catalyst 9166</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6E (802.11ax)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.78 Gbps</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1 x 5GbE Multigigabit</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PoE+ / UPOE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Integrated BLE 5.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Tri-band 4x4:4 (2.4/5/6GHz)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Flagship 6E</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>/app/static/images/cisco-9130.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>cisco-catalyst-9164</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Catalyst 9164</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6E (802.11ax)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7.49 Gbps</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1 x 2.5GbE Multigigabit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PoE+ / UPOE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Integrated BLE 5.1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2x2(2.4)+4x4(5)+4x4(6)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>High Perf 6E</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>/app/static/images/cisco-9130.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cisco-catalyst-9136</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Catalyst 9136</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6E (802.11ax)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10.2 Gbps</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2 x 5GbE Multigigabit</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>UPOE / PoE++</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BLE 5.0 + Sensors</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>4x4(2.4)+8x8(5)+4x4(6)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Ultra High Density</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>/app/static/images/cisco-9130.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>cisco-catalyst-9130ax</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Catalyst 9130AX</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6 (802.11ax)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5.38 Gbps</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1 x 5GbE Multigigabit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PoE+</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Integrated BLE 5.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>4x4(2.4) + 8x8(5)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Flagship Wi-Fi 6</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>/app/static/images/cisco-9130.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>cisco-catalyst-9105</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cisco</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Catalyst 9105</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Wi-Fi 6 (802.11ax)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.488 Gbps</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1 x 1GbE / 2.5GbE(w)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PoE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Integrated BLE 5.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2x2 (2.4G) + 2x2 (5G)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Compact/Wall Plate</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>/app/static/images/cisco-9130.png</t>
         </is>
